--- a/P12.xlsx
+++ b/P12.xlsx
@@ -69,13 +69,13 @@
         <v>0.0</v>
       </c>
       <c r="C1" t="n">
-        <v>-5.421010862427522E-20</v>
+        <v>0.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0</v>
+        <v>-4.3109175624273016E-26</v>
       </c>
     </row>
     <row r="2">
@@ -83,16 +83,16 @@
         <v>0.7140307033202428</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13752387292318</v>
+        <v>0.13752387291688276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24225264866211438</v>
+        <v>0.2422526486607653</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13621749311214726</v>
+        <v>0.136217493106164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.36766351635081057</v>
+        <v>0.36766351650372003</v>
       </c>
     </row>
     <row r="3">
@@ -100,16 +100,16 @@
         <v>1.4280614066404855</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19594851590763912</v>
+        <v>0.19594851807980285</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2035983885907555</v>
+        <v>-0.20359855205959848</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22600487747839146</v>
+        <v>0.22600487471736866</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.18492464808146872</v>
+        <v>-0.18492463551146493</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>2.1420921099607284</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1574155887496555</v>
+        <v>-0.15741559713519093</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6758301971055665</v>
+        <v>-0.6758302034944411</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14608134265705186</v>
+        <v>-0.14608132986108513</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7436157334968375</v>
+        <v>-0.7436157613659732</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>2.856122813280971</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5172068931203587</v>
+        <v>-0.5172068916883418</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1505026384186037</v>
+        <v>-0.1505026500758729</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5593044705795975</v>
+        <v>-0.5593044745904882</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2132802651476357</v>
+        <v>-0.2132803130194635</v>
       </c>
     </row>
     <row r="6">
@@ -151,16 +151,16 @@
         <v>3.5701535166012137</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2515065981284466</v>
+        <v>-0.2515066137413799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8547127778344978</v>
+        <v>0.8547127548365259</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.29153854610575</v>
+        <v>-0.29153855561075687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9093257777754113</v>
+        <v>0.9093258045552274</v>
       </c>
     </row>
     <row r="7">
@@ -168,16 +168,16 @@
         <v>4.284184219921457</v>
       </c>
       <c r="B7" t="n">
-        <v>0.45667286821477254</v>
+        <v>0.45667285275734576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8744748325689883</v>
+        <v>0.8744749025161644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4759220937463943</v>
+        <v>0.4759220664698631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9769590544505767</v>
+        <v>0.9769592067282074</v>
       </c>
     </row>
     <row r="8">
@@ -185,16 +185,16 @@
         <v>4.998214923241699</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6918934181208359</v>
+        <v>0.69189345432698</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.31771597768797927</v>
+        <v>-0.3177159530088835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7589286492255418</v>
+        <v>0.7589287068187043</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3234176698826274</v>
+        <v>-0.3234175905951951</v>
       </c>
     </row>
     <row r="9">
@@ -202,16 +202,16 @@
         <v>5.712245626561942</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0731428925206753</v>
+        <v>0.07314292394229385</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.2168967631774732</v>
+        <v>-1.2168968363680746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09689868668020996</v>
+        <v>0.09689872021016156</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3094263245402908</v>
+        <v>-1.3094263761350151</v>
       </c>
     </row>
     <row r="10">
@@ -219,16 +219,16 @@
         <v>6.426276329882185</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6616512744167733</v>
+        <v>-0.6616512973368092</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.594997786639748</v>
+        <v>-0.5949977492489613</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7109845832242302</v>
+        <v>-0.7109846082879384</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6780917107287778</v>
+        <v>-0.6780916848424755</v>
       </c>
     </row>
     <row r="11">
@@ -236,16 +236,16 @@
         <v>7.140307033202427</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.603771702960406</v>
+        <v>-0.6037717390000796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7259243665544611</v>
+        <v>0.725924438022625</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6591559100795779</v>
+        <v>-0.6591559614090327</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7888669701493761</v>
+        <v>0.7888669149931207</v>
       </c>
     </row>
     <row r="12">
@@ -253,16 +253,16 @@
         <v>7.8543377365226705</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13689971633130185</v>
+        <v>0.13689972331253597</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089925825026345</v>
+        <v>1.089925890251964</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14093526441500728</v>
+        <v>0.14093525746993338</v>
       </c>
       <c r="E12" t="n">
-        <v>1.19002249154135</v>
+        <v>1.1900225761132566</v>
       </c>
     </row>
     <row r="13">
@@ -270,16 +270,16 @@
         <v>8.568368439842914</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6312136271404005</v>
+        <v>0.6312136640975773</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16455142172873477</v>
+        <v>0.16455142770996425</v>
       </c>
       <c r="D13" t="n">
-        <v>0.68662917595528</v>
+        <v>0.6866292163010087</v>
       </c>
       <c r="E13" t="n">
-        <v>0.184153057399</v>
+        <v>0.1841530723255044</v>
       </c>
     </row>
     <row r="14">
@@ -287,16 +287,16 @@
         <v>9.282399143163156</v>
       </c>
       <c r="B14" t="n">
-        <v>0.37614696146722293</v>
+        <v>0.3761469660769905</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7595980124023187</v>
+        <v>-0.7595980811011362</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4042249564307106</v>
+        <v>0.40422497021052944</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8225299583849821</v>
+        <v>-0.8225300050458358</v>
       </c>
     </row>
     <row r="15">
@@ -304,16 +304,16 @@
         <v>9.996429846483398</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1896848330615467</v>
+        <v>-0.18968486076291902</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6475369174941353</v>
+        <v>-0.6475369434591991</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.21126956533365288</v>
+        <v>-0.21126959703789527</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7049918155448525</v>
+        <v>-0.7049918381949705</v>
       </c>
     </row>
     <row r="16">
@@ -321,16 +321,16 @@
         <v>10.710460549803642</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.40424086426218586</v>
+        <v>-0.40424089675233005</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05373442448132116</v>
+        <v>0.05373444592039041</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.43564034570134225</v>
+        <v>-0.4356403407746075</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08829271058722239</v>
+        <v>0.08829310645128094</v>
       </c>
     </row>
     <row r="17">
@@ -338,16 +338,16 @@
         <v>11.424491253123884</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2031726399151509</v>
+        <v>-0.2031726103331523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.39879181525828367</v>
+        <v>0.39879183410697</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.20702787604050826</v>
+        <v>-0.20702786448803967</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4385139241562483</v>
+        <v>0.4385140322591446</v>
       </c>
     </row>
     <row r="18">
@@ -355,16 +355,16 @@
         <v>12.138521956444126</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03750164695855448</v>
+        <v>0.03750167543655676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23322535396671218</v>
+        <v>0.233225331771693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04994029574762446</v>
+        <v>0.049940324343308175</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23031771876190366</v>
+        <v>0.23031766044547775</v>
       </c>
     </row>
     <row r="19">
@@ -372,16 +372,16 @@
         <v>12.85255265976437</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13811866170595397</v>
+        <v>0.1381186516482943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08594518507616354</v>
+        <v>0.08594513637675885</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13904728369389427</v>
+        <v>0.13904727403957512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06869084013721798</v>
+        <v>0.0686907677459233</v>
       </c>
     </row>
     <row r="20">
@@ -389,16 +389,16 @@
         <v>13.566583363084613</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20286990190561452</v>
+        <v>0.20286987149767693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09569008777851781</v>
+        <v>0.09569009072556633</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20239777831318342</v>
+        <v>0.20239774583297576</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1097104242797767</v>
+        <v>0.10971043443381286</v>
       </c>
     </row>
     <row r="21">
@@ -406,16 +406,16 @@
         <v>14.280614066404855</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22200828492988722</v>
+        <v>0.22200827815883728</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09810333246894129</v>
+        <v>-0.09810327055143654</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23831795907015188</v>
+        <v>0.23831793381339514</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.07648234942005988</v>
+        <v>-0.07648205495358647</v>
       </c>
     </row>
     <row r="22">
@@ -423,16 +423,16 @@
         <v>14.994644769725099</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01293088813980294</v>
+        <v>0.012930904739665244</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.47777838161917574</v>
+        <v>-0.47777828128458516</v>
       </c>
       <c r="D22" t="n">
-        <v>0.028438340102902814</v>
+        <v>0.028438359872192412</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4970777726120934</v>
+        <v>-0.49707786736911896</v>
       </c>
     </row>
     <row r="23">
@@ -440,16 +440,16 @@
         <v>15.708675473045341</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.35288998129248456</v>
+        <v>-0.35288996172026965</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4266993327655465</v>
+        <v>-0.4266992828715342</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3665547043960634</v>
+        <v>-0.3665546819917519</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.47969864427219083</v>
+        <v>-0.4796986130691348</v>
       </c>
     </row>
     <row r="24">
@@ -457,16 +457,16 @@
         <v>16.422706176365583</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.43322521427345656</v>
+        <v>-0.43322521637466666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26697209962603285</v>
+        <v>0.266972127112318</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.47282013208646956</v>
+        <v>-0.47282014970815195</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2694106158953788</v>
+        <v>0.2694106555467344</v>
       </c>
     </row>
     <row r="25">
@@ -474,16 +474,16 @@
         <v>17.136736879685827</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002757411661436006</v>
+        <v>0.0027573916825389703</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8416252078481936</v>
+        <v>0.8416251990108422</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.012768546881310187</v>
+        <v>-0.012768577284737192</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8991041533154105</v>
+        <v>0.8991041818233516</v>
       </c>
     </row>
     <row r="26">
@@ -491,16 +491,16 @@
         <v>17.850767583006068</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5256632107813458</v>
+        <v>0.5256632072288504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.44878917115370254</v>
+        <v>0.44878926463720137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5594595123156111</v>
+        <v>0.5594595075217351</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5104332435636988</v>
+        <v>0.5104333209423293</v>
       </c>
     </row>
     <row r="27">
@@ -508,16 +508,16 @@
         <v>18.56479828632631</v>
       </c>
       <c r="B27" t="n">
-        <v>0.49310891086446096</v>
+        <v>0.49310889785834755</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.544812624560805</v>
+        <v>-0.544812486002366</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5377729974103898</v>
+        <v>0.5377729793504047</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5834523542116105</v>
+        <v>-0.5834525221665552</v>
       </c>
     </row>
     <row r="28">
@@ -525,16 +525,16 @@
         <v>19.278828989646556</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.10935710621093005</v>
+        <v>-0.10935707843895799</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9532492211646287</v>
+        <v>-0.953249199359567</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1066557462333328</v>
+        <v>-0.10665572460753454</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0319037738487276</v>
+        <v>-1.0319036807700515</v>
       </c>
     </row>
     <row r="29">
@@ -542,16 +542,16 @@
         <v>19.992859692966796</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5923990209690021</v>
+        <v>-0.5923989856104963</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2559538111062075</v>
+        <v>-0.25595369007871854</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6381243178794394</v>
+        <v>-0.6381242850452213</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.29305212942139847</v>
+        <v>-0.29305190258305674</v>
       </c>
     </row>
     <row r="30">
@@ -559,16 +559,16 @@
         <v>20.70689039628704</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.41559582846743476</v>
+        <v>-0.41559582680047835</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6880808901307096</v>
+        <v>0.6880808511980296</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4497885714736847</v>
+        <v>-0.44978857454305593</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7373988052242229</v>
+        <v>0.7373986890365021</v>
       </c>
     </row>
     <row r="31">
@@ -576,16 +576,16 @@
         <v>21.420921099607284</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17926506350774</v>
+        <v>0.17926503296953844</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7944253522173397</v>
+        <v>0.794425344314104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19047351125580408</v>
+        <v>0.19047347341341092</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8627688920484918</v>
+        <v>0.8627688521029319</v>
       </c>
     </row>
     <row r="32">
@@ -593,16 +593,16 @@
         <v>22.134951802927525</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5134776921945757</v>
+        <v>0.5134776692330008</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07083038892112563</v>
+        <v>0.07083047251943667</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5535977006371211</v>
+        <v>0.5535976627571447</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07152802562799195</v>
+        <v>0.0715281164444307</v>
       </c>
     </row>
     <row r="33">
@@ -610,16 +610,16 @@
         <v>22.84898250624777</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3023389838162479</v>
+        <v>0.302339035325898</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5738823060964066</v>
+        <v>-0.5738822177453278</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3210748353643202</v>
+        <v>0.32107486832032234</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6162055917592698</v>
+        <v>-0.6162056126965368</v>
       </c>
     </row>
     <row r="34">
@@ -627,16 +627,16 @@
         <v>23.563013209568012</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.13103700871237176</v>
+        <v>-0.1310369672193475</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5262736902625916</v>
+        <v>-0.5262736548361365</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.14450820450247212</v>
+        <v>-0.1445081449786689</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5614731247162473</v>
+        <v>-0.56147312619537</v>
       </c>
     </row>
     <row r="35">
@@ -644,16 +644,16 @@
         <v>24.277043912888253</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.34914895356984504</v>
+        <v>-0.34914894546484265</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.06661501200742705</v>
+        <v>-0.06661506543263108</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.37105161491422173</v>
+        <v>-0.3710516099057883</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.05524739639914028</v>
+        <v>-0.05524738639779907</v>
       </c>
     </row>
     <row r="36">
@@ -661,16 +661,16 @@
         <v>24.991074616208497</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.2576352860730579</v>
+        <v>-0.25763530471045565</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2757082518452682</v>
+        <v>0.27570831710840493</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2670302106479764</v>
+        <v>-0.26703024602249076</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2922210570123354</v>
+        <v>0.29222108608441466</v>
       </c>
     </row>
     <row r="37">
@@ -678,16 +678,16 @@
         <v>25.70510531952874</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.023322396303002646</v>
+        <v>-0.023322376272761562</v>
       </c>
       <c r="C37" t="n">
-        <v>0.34623285988469615</v>
+        <v>0.34623293966619445</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.022496613932326253</v>
+        <v>-0.02249657040666971</v>
       </c>
       <c r="E37" t="n">
-        <v>0.35389940506250406</v>
+        <v>0.3538994200421168</v>
       </c>
     </row>
     <row r="38">
@@ -695,16 +695,16 @@
         <v>26.41913602284898</v>
       </c>
       <c r="B38" t="n">
-        <v>0.20161137518766964</v>
+        <v>0.2016114166244435</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26350670628601613</v>
+        <v>0.26350665541717183</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20702763037794525</v>
+        <v>0.20702767487543927</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2717633865937672</v>
+        <v>0.2717634036212901</v>
       </c>
     </row>
     <row r="39">
@@ -712,16 +712,16 @@
         <v>27.133166726169225</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31640195797137605</v>
+        <v>0.31640193884974055</v>
       </c>
       <c r="C39" t="n">
-        <v>0.026258158627448697</v>
+        <v>0.026258047899546295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3303093248436443</v>
+        <v>0.3303093125807159</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04035723458173721</v>
+        <v>0.0403572129363375</v>
       </c>
     </row>
     <row r="40">
@@ -729,16 +729,16 @@
         <v>27.84719742948947</v>
       </c>
       <c r="B40" t="n">
-        <v>0.20297421714386635</v>
+        <v>0.20297417324738845</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.351248473063103</v>
+        <v>-0.3512484636694095</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21995740028097166</v>
+        <v>0.2199573386921697</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.35847653466356966</v>
+        <v>-0.3584765278832456</v>
       </c>
     </row>
     <row r="41">
@@ -746,16 +746,16 @@
         <v>28.56122813280971</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.14134282784442637</v>
+        <v>-0.14134282416826502</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5409352468928919</v>
+        <v>-0.5409351537722925</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.13953028429472625</v>
+        <v>-0.13953027242201607</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5770733388296903</v>
+        <v>-0.5770732982491367</v>
       </c>
     </row>
     <row r="42">
@@ -763,16 +763,16 @@
         <v>29.275258836129954</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4332128484171416</v>
+        <v>-0.4332127942433392</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.18054734337068581</v>
+        <v>-0.1805473385493268</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4591810421977931</v>
+        <v>-0.45918098314142075</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.21317700711635235</v>
+        <v>-0.21317696638804384</v>
       </c>
     </row>
     <row r="43">
@@ -780,16 +780,16 @@
         <v>29.989289539450198</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.320362475048576</v>
+        <v>-0.320362447181672</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4927096977655546</v>
+        <v>0.49270970407379894</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.34908645810997835</v>
+        <v>-0.34908643873599393</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5175554367100292</v>
+        <v>0.5175550941663194</v>
       </c>
     </row>
     <row r="44">
@@ -797,16 +797,16 @@
         <v>30.703320242770438</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16452326795455524</v>
+        <v>0.16452322975928346</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7319662379589653</v>
+        <v>0.7319661704637943</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16543321382859244</v>
+        <v>0.1654331823517618</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7896138285905935</v>
+        <v>0.7896137836377541</v>
       </c>
     </row>
     <row r="45">
@@ -814,16 +814,16 @@
         <v>31.417350946090682</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5239742829403381</v>
+        <v>0.5239742532477052</v>
       </c>
       <c r="C45" t="n">
-        <v>0.16306061861002438</v>
+        <v>0.16306070924538626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5610129857723574</v>
+        <v>0.5610129461282035</v>
       </c>
       <c r="E45" t="n">
-        <v>0.19297741046226793</v>
+        <v>0.19297752087120937</v>
       </c>
     </row>
     <row r="46">
@@ -831,16 +831,16 @@
         <v>32.131381649410926</v>
       </c>
       <c r="B46" t="n">
-        <v>0.34235523239813187</v>
+        <v>0.34235526330789895</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6292796887338735</v>
+        <v>-0.6292796233279558</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3720670822530855</v>
+        <v>0.37206710370882384</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6671826088917773</v>
+        <v>-0.6671825337064904</v>
       </c>
     </row>
     <row r="47">
@@ -848,16 +848,16 @@
         <v>32.84541235273117</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2069146940038738</v>
+        <v>-0.20691465524896832</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7500397421730522</v>
+        <v>-0.7500397819239246</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21542235180823244</v>
+        <v>-0.21542230177966415</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.812382799272137</v>
+        <v>-0.8123828144852785</v>
       </c>
     </row>
     <row r="48">
@@ -865,16 +865,16 @@
         <v>33.55944305605141</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5305635355072199</v>
+        <v>-0.5305635595454935</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.07188293844232284</v>
+        <v>-0.07188296666382363</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5700173177606125</v>
+        <v>-0.5700173505349981</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.08396860044818073</v>
+        <v>-0.0839686531194787</v>
       </c>
     </row>
     <row r="49">
@@ -882,16 +882,16 @@
         <v>34.273473759371655</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.3036205762882613</v>
+        <v>-0.3036206155757969</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6356612626446781</v>
+        <v>0.6356612916323465</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.32682765741581293</v>
+        <v>-0.32682770199380506</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6764999284161533</v>
+        <v>0.6764999662820452</v>
       </c>
     </row>
     <row r="50">
@@ -899,16 +899,16 @@
         <v>34.987504462691895</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19910919366030122</v>
+        <v>0.19910919950310174</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6350745163112212</v>
+        <v>0.6350745892920132</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21189701242063683</v>
+        <v>0.21189701911814543</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6840826068748491</v>
+        <v>0.684082638366483</v>
       </c>
     </row>
     <row r="51">
@@ -916,16 +916,16 @@
         <v>35.701535166012135</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4562483704710445</v>
+        <v>0.4562484138243892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.037362321587583874</v>
+        <v>0.03736229948750707</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4879609267620754</v>
+        <v>0.4879609817331414</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0350171010936358</v>
+        <v>0.03501715946271094</v>
       </c>
     </row>
     <row r="52">
@@ -933,16 +933,16 @@
         <v>36.41556586933238</v>
       </c>
       <c r="B52" t="n">
-        <v>0.27108692147694624</v>
+        <v>0.2710869340271255</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.491102803564457</v>
+        <v>-0.4911027966655306</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28710243819535086</v>
+        <v>0.2871024281262946</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5220139767294214</v>
+        <v>-0.5220138423158933</v>
       </c>
     </row>
     <row r="53">
@@ -950,16 +950,16 @@
         <v>37.12959657265262</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.11566649485046429</v>
+        <v>-0.11566646772202402</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5027454718615589</v>
+        <v>-0.5027455079662833</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1241227644283845</v>
+        <v>-0.12412274042325971</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5320963435988616</v>
+        <v>-0.5320963628813882</v>
       </c>
     </row>
     <row r="54">
@@ -967,16 +967,16 @@
         <v>37.843627275972864</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.35276141631661984</v>
+        <v>-0.3527614206481658</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.12702536910045964</v>
+        <v>-0.12702541884850566</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.37280017892680806</v>
+        <v>-0.3728001841152253</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1293320500462075</v>
+        <v>-0.1293321144105837</v>
       </c>
     </row>
     <row r="55">
@@ -984,16 +984,16 @@
         <v>38.55765797929311</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2921210513199757</v>
+        <v>-0.2921210795802488</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27556902193875726</v>
+        <v>0.27556903259753407</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3066995391690092</v>
+        <v>-0.3066995570027116</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2874600342002127</v>
+        <v>0.28746003933088676</v>
       </c>
     </row>
     <row r="56">
@@ -1001,16 +1001,16 @@
         <v>39.27168868261335</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.014781178172779401</v>
+        <v>-0.014781178623846467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4525725501521028</v>
+        <v>0.45257257846431265</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0175857501128963</v>
+        <v>-0.017585765076202856</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4720037769402932</v>
+        <v>0.47200385233951014</v>
       </c>
     </row>
     <row r="57">
@@ -1018,16 +1018,16 @@
         <v>39.98571938593359</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2777980058084076</v>
+        <v>0.27779802102238427</v>
       </c>
       <c r="C57" t="n">
-        <v>0.312327135966248</v>
+        <v>0.31232714863074634</v>
       </c>
       <c r="D57" t="n">
-        <v>0.28932662401061776</v>
+        <v>0.2893266467889274</v>
       </c>
       <c r="E57" t="n">
-        <v>0.33213837970422083</v>
+        <v>0.33213835656228097</v>
       </c>
     </row>
   </sheetData>

--- a/P12.xlsx
+++ b/P12.xlsx
@@ -75,7 +75,7 @@
         <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>-4.3109175624273016E-26</v>
+        <v>4.3127724728511863E-26</v>
       </c>
     </row>
     <row r="2">
@@ -83,16 +83,16 @@
         <v>0.7140307033202428</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13752387291688276</v>
+        <v>0.1375238729227165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2422526486607653</v>
+        <v>0.24225264866201404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.136217493106164</v>
+        <v>0.13621749311170678</v>
       </c>
       <c r="E2" t="n">
-        <v>0.36766351650372003</v>
+        <v>0.36766351636206407</v>
       </c>
     </row>
     <row r="3">
@@ -100,16 +100,16 @@
         <v>1.4280614066404855</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19594851807980285</v>
+        <v>0.1959485157287387</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.20359855205959848</v>
+        <v>-0.20359838855740003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22600487471736866</v>
+        <v>0.22600487769328972</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.18492463551146493</v>
+        <v>-0.184924648054795</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>2.1420921099607284</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.15741559713519093</v>
+        <v>-0.15741558875501432</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6758302034944411</v>
+        <v>-0.6758301970222095</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14608132986108513</v>
+        <v>-0.14608134262872197</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7436157613659732</v>
+        <v>-0.7436157333075993</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>2.856122813280971</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5172068916883418</v>
+        <v>-0.5172068930777228</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1505026500758729</v>
+        <v>-0.15050263741291492</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5593044745904882</v>
+        <v>-0.5593044705872438</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2132803130194635</v>
+        <v>-0.2132802676589604</v>
       </c>
     </row>
     <row r="6">
@@ -151,16 +151,16 @@
         <v>3.5701535166012137</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2515066137413799</v>
+        <v>-0.2515066004991526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8547127548365259</v>
+        <v>0.8547127281350305</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.29153855561075687</v>
+        <v>-0.29153854439041027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9093258045552274</v>
+        <v>0.9093258681925472</v>
       </c>
     </row>
     <row r="7">
@@ -168,16 +168,16 @@
         <v>4.284184219921457</v>
       </c>
       <c r="B7" t="n">
-        <v>0.45667285275734576</v>
+        <v>0.4566728633800076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8744749025161644</v>
+        <v>0.8744748639706671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4759220664698631</v>
+        <v>0.4759220879035431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9769592067282074</v>
+        <v>0.976959074874899</v>
       </c>
     </row>
     <row r="8">
@@ -185,16 +185,16 @@
         <v>4.998214923241699</v>
       </c>
       <c r="B8" t="n">
-        <v>0.69189345432698</v>
+        <v>0.6918934132841899</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3177159530088835</v>
+        <v>-0.3177159641909847</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7589287068187043</v>
+        <v>0.75892864382923</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3234175905951951</v>
+        <v>-0.32341766328209043</v>
       </c>
     </row>
     <row r="9">
@@ -202,16 +202,16 @@
         <v>5.712245626561942</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07314292394229385</v>
+        <v>0.07314289970540706</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.2168968363680746</v>
+        <v>-1.2168967564028643</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09689872021016156</v>
+        <v>0.09689868432535084</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3094263761350151</v>
+        <v>-1.3094263017363583</v>
       </c>
     </row>
     <row r="10">
@@ -219,16 +219,16 @@
         <v>6.426276329882185</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6616512973368092</v>
+        <v>-0.6616512774560585</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5949977492489613</v>
+        <v>-0.5949978968930405</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7109846082879384</v>
+        <v>-0.7109845865236344</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6780916848424755</v>
+        <v>-0.6780918042156697</v>
       </c>
     </row>
     <row r="11">
@@ -236,16 +236,16 @@
         <v>7.140307033202427</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6037717390000796</v>
+        <v>-0.6037717285433594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.725924438022625</v>
+        <v>0.7259244700421095</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6591559614090327</v>
+        <v>-0.6591559488018556</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7888669149931207</v>
+        <v>0.7888668409060571</v>
       </c>
     </row>
     <row r="12">
@@ -253,16 +253,16 @@
         <v>7.8543377365226705</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13689972331253597</v>
+        <v>0.13689972481631038</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089925890251964</v>
+        <v>1.089925871653156</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14093525746993338</v>
+        <v>0.14093526286831312</v>
       </c>
       <c r="E12" t="n">
-        <v>1.1900225761132566</v>
+        <v>1.190022553343262</v>
       </c>
     </row>
     <row r="13">
@@ -270,16 +270,16 @@
         <v>8.568368439842914</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6312136640975773</v>
+        <v>0.6312136552061628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16455142770996425</v>
+        <v>0.16455141997916758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6866292163010087</v>
+        <v>0.6866292065305467</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1841530723255044</v>
+        <v>0.18415306221665004</v>
       </c>
     </row>
     <row r="14">
@@ -287,16 +287,16 @@
         <v>9.282399143163156</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3761469660769905</v>
+        <v>0.3761469577337502</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7595980811011362</v>
+        <v>-0.7595980443399787</v>
       </c>
       <c r="D14" t="n">
-        <v>0.40422497021052944</v>
+        <v>0.40422495856085855</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8225300050458358</v>
+        <v>-0.822529971953034</v>
       </c>
     </row>
     <row r="15">
@@ -304,16 +304,16 @@
         <v>9.996429846483398</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.18968486076291902</v>
+        <v>-0.18968484572149205</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6475369434591991</v>
+        <v>-0.6475369204487251</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.21126959703789527</v>
+        <v>-0.21126958038035482</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7049918381949705</v>
+        <v>-0.704991813258315</v>
       </c>
     </row>
     <row r="16">
@@ -321,16 +321,16 @@
         <v>10.710460549803642</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.40424089675233005</v>
+        <v>-0.40424087794618546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05373444592039041</v>
+        <v>0.05373439827464624</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4356403407746075</v>
+        <v>-0.4356403284000539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08829310645128094</v>
+        <v>0.08829298094797566</v>
       </c>
     </row>
     <row r="17">
@@ -338,16 +338,16 @@
         <v>11.424491253123884</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2031726103331523</v>
+        <v>-0.20317262384636436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.39879183410697</v>
+        <v>0.39879183349088343</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.20702786448803967</v>
+        <v>-0.20702785448491165</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4385140322591446</v>
+        <v>0.4385139364429241</v>
       </c>
     </row>
     <row r="18">
@@ -355,16 +355,16 @@
         <v>12.138521956444126</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03750167543655676</v>
+        <v>0.037501654150971925</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233225331771693</v>
+        <v>0.2332253395978196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.049940324343308175</v>
+        <v>0.049940309470314456</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23031766044547775</v>
+        <v>0.23031772453536603</v>
       </c>
     </row>
     <row r="19">
@@ -372,16 +372,16 @@
         <v>12.85255265976437</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1381186516482943</v>
+        <v>0.13811865532752365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08594513637675885</v>
+        <v>0.08594514270524276</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13904727403957512</v>
+        <v>0.13904727337672432</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0686907677459233</v>
+        <v>0.06869092614102631</v>
       </c>
     </row>
     <row r="20">
@@ -389,16 +389,16 @@
         <v>13.566583363084613</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20286987149767693</v>
+        <v>0.20286988650377508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09569009072556633</v>
+        <v>0.09569011741113703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20239774583297576</v>
+        <v>0.20239776056670497</v>
       </c>
       <c r="E20" t="n">
-        <v>0.10971043443381286</v>
+        <v>0.10971045125044832</v>
       </c>
     </row>
     <row r="21">
@@ -406,16 +406,16 @@
         <v>14.280614066404855</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22200827815883728</v>
+        <v>0.22200827975954546</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09810327055143654</v>
+        <v>-0.09810323442876284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23831793381339514</v>
+        <v>0.23831787054628853</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.07648205495358647</v>
+        <v>-0.07648253609981213</v>
       </c>
     </row>
     <row r="22">
@@ -423,16 +423,16 @@
         <v>14.994644769725099</v>
       </c>
       <c r="B22" t="n">
-        <v>0.012930904739665244</v>
+        <v>0.012930866034338278</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.47777828128458516</v>
+        <v>-0.4777782740970968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.028438359872192412</v>
+        <v>0.028438336646994848</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.49707786736911896</v>
+        <v>-0.49707787974095063</v>
       </c>
     </row>
     <row r="23">
@@ -440,16 +440,16 @@
         <v>15.708675473045341</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.35288996172026965</v>
+        <v>-0.35288998073269406</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4266992828715342</v>
+        <v>-0.42669925695047073</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3665546819917519</v>
+        <v>-0.36655469626066123</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4796986130691348</v>
+        <v>-0.47969851121192664</v>
       </c>
     </row>
     <row r="24">
@@ -457,16 +457,16 @@
         <v>16.422706176365583</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.43322521637466666</v>
+        <v>-0.4332252082179787</v>
       </c>
       <c r="C24" t="n">
-        <v>0.266972127112318</v>
+        <v>0.26697205857127027</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.47282014970815195</v>
+        <v>-0.47282010351438986</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2694106555467344</v>
+        <v>0.2694108089299288</v>
       </c>
     </row>
     <row r="25">
@@ -474,16 +474,16 @@
         <v>17.136736879685827</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0027573916825389703</v>
+        <v>0.0027574337756791824</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8416251990108422</v>
+        <v>0.8416251688604038</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.012768577284737192</v>
+        <v>-0.012768532193614837</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8991041818233516</v>
+        <v>0.8991041989217704</v>
       </c>
     </row>
     <row r="26">
@@ -491,16 +491,16 @@
         <v>17.850767583006068</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5256632072288504</v>
+        <v>0.5256632186685799</v>
       </c>
       <c r="C26" t="n">
-        <v>0.44878926463720137</v>
+        <v>0.448789235727064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5594595075217351</v>
+        <v>0.5594595152043844</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5104333209423293</v>
+        <v>0.5104332177068461</v>
       </c>
     </row>
     <row r="27">
@@ -508,16 +508,16 @@
         <v>18.56479828632631</v>
       </c>
       <c r="B27" t="n">
-        <v>0.49310889785834755</v>
+        <v>0.49310887249780605</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.544812486002366</v>
+        <v>-0.5448125146511602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5377729793504047</v>
+        <v>0.5377729539464902</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5834525221665552</v>
+        <v>-0.5834525679835837</v>
       </c>
     </row>
     <row r="28">
@@ -525,16 +525,16 @@
         <v>19.278828989646556</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.10935707843895799</v>
+        <v>-0.10935710052077474</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.953249199359567</v>
+        <v>-0.9532491368902294</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.10665572460753454</v>
+        <v>-0.10665574699353829</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0319036807700515</v>
+        <v>-1.0319037224035164</v>
       </c>
     </row>
     <row r="29">
@@ -542,16 +542,16 @@
         <v>19.992859692966796</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5923989856104963</v>
+        <v>-0.5923989631418054</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.25595369007871854</v>
+        <v>-0.25595374190491316</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6381242850452213</v>
+        <v>-0.6381242603900187</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.29305190258305674</v>
+        <v>-0.29305201179756485</v>
       </c>
     </row>
     <row r="30">
@@ -559,16 +559,16 @@
         <v>20.70689039628704</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.41559582680047835</v>
+        <v>-0.41559575562784334</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6880808511980296</v>
+        <v>0.6880807121871643</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.44978857454305593</v>
+        <v>-0.4497884903896788</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7373986890365021</v>
+        <v>0.7373984777213808</v>
       </c>
     </row>
     <row r="31">
@@ -576,16 +576,16 @@
         <v>21.420921099607284</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17926503296953844</v>
+        <v>0.17926497666569205</v>
       </c>
       <c r="C31" t="n">
-        <v>0.794425344314104</v>
+        <v>0.7944251896240818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19047347341341092</v>
+        <v>0.1904734230059476</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8627688521029319</v>
+        <v>0.8627686324630568</v>
       </c>
     </row>
     <row r="32">
@@ -593,16 +593,16 @@
         <v>22.134951802927525</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5134776692330008</v>
+        <v>0.5134775929088718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07083047251943667</v>
+        <v>0.07083047962070739</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5535976627571447</v>
+        <v>0.5535975877566348</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0715281164444307</v>
+        <v>0.07152828460618127</v>
       </c>
     </row>
     <row r="33">
@@ -610,16 +610,16 @@
         <v>22.84898250624777</v>
       </c>
       <c r="B33" t="n">
-        <v>0.302339035325898</v>
+        <v>0.3023390452787404</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5738822177453278</v>
+        <v>-0.573882171024023</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32107486832032234</v>
+        <v>0.3210748909227016</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6162056126965368</v>
+        <v>-0.6162054283709036</v>
       </c>
     </row>
     <row r="34">
@@ -627,16 +627,16 @@
         <v>23.563013209568012</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1310369672193475</v>
+        <v>-0.13103692556608315</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5262736548361365</v>
+        <v>-0.5262737402650403</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1445081449786689</v>
+        <v>-0.14450811543050168</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.56147312619537</v>
+        <v>-0.5614731588890062</v>
       </c>
     </row>
     <row r="35">
@@ -644,16 +644,16 @@
         <v>24.277043912888253</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.34914894546484265</v>
+        <v>-0.3491489847950255</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.06661506543263108</v>
+        <v>-0.06661517485334675</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3710516099057883</v>
+        <v>-0.3710516508838152</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.05524738639779907</v>
+        <v>-0.05524760906712701</v>
       </c>
     </row>
     <row r="36">
@@ -661,16 +661,16 @@
         <v>24.991074616208497</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.25763530471045565</v>
+        <v>-0.25763537027830363</v>
       </c>
       <c r="C36" t="n">
-        <v>0.27570831710840493</v>
+        <v>0.2757083419720821</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.26703024602249076</v>
+        <v>-0.26703032733780113</v>
       </c>
       <c r="E36" t="n">
-        <v>0.29222108608441466</v>
+        <v>0.29222098258272305</v>
       </c>
     </row>
     <row r="37">
@@ -678,16 +678,16 @@
         <v>25.70510531952874</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.023322376272761562</v>
+        <v>-0.023322399444897106</v>
       </c>
       <c r="C37" t="n">
-        <v>0.34623293966619445</v>
+        <v>0.34623303097110664</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.02249657040666971</v>
+        <v>-0.022496596936183697</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3538994200421168</v>
+        <v>0.3538996151569051</v>
       </c>
     </row>
     <row r="38">
@@ -695,16 +695,16 @@
         <v>26.41913602284898</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2016114166244435</v>
+        <v>0.20161146966648022</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26350665541717183</v>
+        <v>0.26350672434617484</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20702767487543927</v>
+        <v>0.2070277338683929</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2717634036212901</v>
+        <v>0.27176348076605916</v>
       </c>
     </row>
     <row r="39">
@@ -712,16 +712,16 @@
         <v>27.133166726169225</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31640193884974055</v>
+        <v>0.31640198369652167</v>
       </c>
       <c r="C39" t="n">
-        <v>0.026258047899546295</v>
+        <v>0.026257979406042162</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3303093125807159</v>
+        <v>0.3303093586800277</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0403572129363375</v>
+        <v>0.04035711642829862</v>
       </c>
     </row>
     <row r="40">
@@ -729,16 +729,16 @@
         <v>27.84719742948947</v>
       </c>
       <c r="B40" t="n">
-        <v>0.20297417324738845</v>
+        <v>0.20297412259472672</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3512484636694095</v>
+        <v>-0.3512484699107602</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2199573386921697</v>
+        <v>0.21995726915303998</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3584765278832456</v>
+        <v>-0.35847653156033027</v>
       </c>
     </row>
     <row r="41">
@@ -746,16 +746,16 @@
         <v>28.56122813280971</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.14134282416826502</v>
+        <v>-0.14134284551205462</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5409351537722925</v>
+        <v>-0.5409350379160073</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.13953027242201607</v>
+        <v>-0.13953030133934147</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5770732982491367</v>
+        <v>-0.5770732041115777</v>
       </c>
     </row>
     <row r="42">
@@ -763,16 +763,16 @@
         <v>29.275258836129954</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4332127942433392</v>
+        <v>-0.4332127633987452</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1805473385493268</v>
+        <v>-0.18054722383931546</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.45918098314142075</v>
+        <v>-0.4591809480189442</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.21317696638804384</v>
+        <v>-0.21317693323251974</v>
       </c>
     </row>
     <row r="43">
@@ -780,16 +780,16 @@
         <v>29.989289539450198</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.320362447181672</v>
+        <v>-0.3203624398978251</v>
       </c>
       <c r="C43" t="n">
-        <v>0.49270970407379894</v>
+        <v>0.4927095201964741</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.34908643873599393</v>
+        <v>-0.3490864283261295</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5175550941663194</v>
+        <v>0.5175555233585242</v>
       </c>
     </row>
     <row r="44">
@@ -797,16 +797,16 @@
         <v>30.703320242770438</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16452322975928346</v>
+        <v>0.16452323025043858</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7319661704637943</v>
+        <v>0.7319661941271701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1654331823517618</v>
+        <v>0.16543317035139782</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7896137836377541</v>
+        <v>0.7896136795782605</v>
       </c>
     </row>
     <row r="45">
@@ -814,16 +814,16 @@
         <v>31.417350946090682</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5239742532477052</v>
+        <v>0.5239742321242223</v>
       </c>
       <c r="C45" t="n">
-        <v>0.16306070924538626</v>
+        <v>0.16306070816646015</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5610129461282035</v>
+        <v>0.561012930270282</v>
       </c>
       <c r="E45" t="n">
-        <v>0.19297752087120937</v>
+        <v>0.19297745503992902</v>
       </c>
     </row>
     <row r="46">
@@ -831,16 +831,16 @@
         <v>32.131381649410926</v>
       </c>
       <c r="B46" t="n">
-        <v>0.34235526330789895</v>
+        <v>0.34235525786376836</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6292796233279558</v>
+        <v>-0.6292795044790783</v>
       </c>
       <c r="D46" t="n">
-        <v>0.37206710370882384</v>
+        <v>0.37206709217543615</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6671825337064904</v>
+        <v>-0.6671826525449236</v>
       </c>
     </row>
     <row r="47">
@@ -848,16 +848,16 @@
         <v>32.84541235273117</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.20691465524896832</v>
+        <v>-0.20691463538339325</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7500397819239246</v>
+        <v>-0.7500397413566995</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21542230177966415</v>
+        <v>-0.21542228099629004</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8123828144852785</v>
+        <v>-0.8123827375239887</v>
       </c>
     </row>
     <row r="48">
@@ -865,16 +865,16 @@
         <v>33.55944305605141</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5305635595454935</v>
+        <v>-0.5305635317869375</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.07188296666382363</v>
+        <v>-0.07188305116268195</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5700173505349981</v>
+        <v>-0.5700173073455088</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0839686531194787</v>
+        <v>-0.0839687334993949</v>
       </c>
     </row>
     <row r="49">
@@ -882,16 +882,16 @@
         <v>34.273473759371655</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.3036206155757969</v>
+        <v>-0.303620631487076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6356612916323465</v>
+        <v>0.6356612103216728</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.32682770199380506</v>
+        <v>-0.3268277156742041</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6764999662820452</v>
+        <v>0.676499942553235</v>
       </c>
     </row>
     <row r="50">
@@ -899,16 +899,16 @@
         <v>34.987504462691895</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19910919950310174</v>
+        <v>0.19910916778834176</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6350745892920132</v>
+        <v>0.6350746426835504</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21189701911814543</v>
+        <v>0.2118969810400749</v>
       </c>
       <c r="E50" t="n">
-        <v>0.684082638366483</v>
+        <v>0.6840827221888283</v>
       </c>
     </row>
     <row r="51">
@@ -916,16 +916,16 @@
         <v>35.701535166012135</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4562484138243892</v>
+        <v>0.45624841601664484</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03736229948750707</v>
+        <v>0.03736235511545214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4879609817331414</v>
+        <v>0.48796098348555256</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03501715946271094</v>
+        <v>0.03501721553439898</v>
       </c>
     </row>
     <row r="52">
@@ -933,16 +933,16 @@
         <v>36.41556586933238</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2710869340271255</v>
+        <v>0.27108699203274733</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4911027966655306</v>
+        <v>-0.49110291515926174</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2871024281262946</v>
+        <v>0.2871024584957052</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5220138423158933</v>
+        <v>-0.5220140096904504</v>
       </c>
     </row>
     <row r="53">
@@ -950,16 +950,16 @@
         <v>37.12959657265262</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.11566646772202402</v>
+        <v>-0.11566651681844703</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5027455079662833</v>
+        <v>-0.5027456323240845</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.12412274042325971</v>
+        <v>-0.12412278993205204</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5320963628813882</v>
+        <v>-0.5320965840542923</v>
       </c>
     </row>
     <row r="54">
@@ -967,16 +967,16 @@
         <v>37.843627275972864</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3527614206481658</v>
+        <v>-0.35276149034144855</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.12702541884850566</v>
+        <v>-0.1270253510928381</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.3728001841152253</v>
+        <v>-0.37280026245072223</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1293321144105837</v>
+        <v>-0.1293319529410211</v>
       </c>
     </row>
     <row r="55">
@@ -984,16 +984,16 @@
         <v>38.55765797929311</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2921210795802488</v>
+        <v>-0.29212105507501296</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27556903259753407</v>
+        <v>0.2755691260891799</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3066995570027116</v>
+        <v>-0.30669953117652066</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28746003933088676</v>
+        <v>0.28746012682804467</v>
       </c>
     </row>
     <row r="56">
@@ -1001,16 +1001,16 @@
         <v>39.27168868261335</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.014781178623846467</v>
+        <v>-0.014781130666510042</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45257257846431265</v>
+        <v>0.4525726211285853</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.017585765076202856</v>
+        <v>-0.017585688234491838</v>
       </c>
       <c r="E56" t="n">
-        <v>0.47200385233951014</v>
+        <v>0.47200378722463837</v>
       </c>
     </row>
     <row r="57">
@@ -1018,16 +1018,16 @@
         <v>39.98571938593359</v>
       </c>
       <c r="B57" t="n">
-        <v>0.27779802102238427</v>
+        <v>0.27779803819909477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31232714863074634</v>
+        <v>0.31232703570236864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2893266467889274</v>
+        <v>0.2893266764516611</v>
       </c>
       <c r="E57" t="n">
-        <v>0.33213835656228097</v>
+        <v>0.33213827548963865</v>
       </c>
     </row>
   </sheetData>

--- a/P12.xlsx
+++ b/P12.xlsx
@@ -80,954 +80,2416 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7140307033202428</v>
+        <v>0.2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1375238729227165</v>
+        <v>0.01861170054762493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24225264866201404</v>
+        <v>0.1721336054849841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13621749311170678</v>
+        <v>0.002413809398676057</v>
       </c>
       <c r="E2" t="n">
-        <v>0.36766351636206407</v>
+        <v>0.04670038451271162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.4280614066404855</v>
+        <v>0.4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1959485157287387</v>
+        <v>0.061119236037701107</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.20359838855740003</v>
+        <v>0.2362892506185124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22600487769328972</v>
+        <v>0.029579340819833724</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.184924648054795</v>
+        <v>0.23855046938537586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.1420921099607284</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.15741558875501432</v>
+        <v>0.10962400921517457</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6758301970222095</v>
+        <v>0.2455657177863089</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14608134262872197</v>
+        <v>0.09350304252288645</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7436157333075993</v>
+        <v>0.37232297654115026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.856122813280971</v>
+        <v>0.8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5172068930777228</v>
+        <v>0.1579500299789199</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.15050263741291492</v>
+        <v>0.23136948547422936</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5593044705872438</v>
+        <v>0.166487373513909</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2132802676589604</v>
+        <v>0.3329300019142154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.5701535166012137</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2515066004991526</v>
+        <v>0.19826943102708344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8547127281350305</v>
+        <v>0.15967569371517315</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.29153854439041027</v>
+        <v>0.22025845937704625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9093258681925472</v>
+        <v>0.19605804789573145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.284184219921457</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4566728633800076</v>
+        <v>0.21689253315825097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8744748639706671</v>
+        <v>0.015500361594346682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4759220879035431</v>
+        <v>0.24305110645048222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.976959074874899</v>
+        <v>0.029273066468967896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.998214923241699</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6918934132841899</v>
+        <v>0.20127000482818003</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3177159641909847</v>
+        <v>-0.17566969137358085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.75892864382923</v>
+        <v>0.23079450300872645</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.32341766328209043</v>
+        <v>-0.1565334405606053</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.712245626561942</v>
+        <v>1.6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07314289970540706</v>
+        <v>0.1465013908691149</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.2168967564028643</v>
+        <v>-0.36925548790581536</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09689868432535084</v>
+        <v>0.17870018568691026</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3094263017363583</v>
+        <v>-0.36665176917539866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.426276329882185</v>
+        <v>1.8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6616512774560585</v>
+        <v>0.05556613724323063</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5949978968930405</v>
+        <v>-0.533139158099879</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7109845865236344</v>
+        <v>0.08492291992805732</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6780918042156697</v>
+        <v>-0.5645066762325779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.140307033202427</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6037717285433594</v>
+        <v>-0.06318236980875794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7259244700421095</v>
+        <v>-0.6433587583323209</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6591559488018556</v>
+        <v>-0.04291403336608576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7888668409060571</v>
+        <v>-0.7005047587071243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.8543377365226705</v>
+        <v>2.2</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13689972481631038</v>
+        <v>-0.19659962855441107</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089925871653156</v>
+        <v>-0.6761922315819159</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14093526286831312</v>
+        <v>-0.18928455895623852</v>
       </c>
       <c r="E12" t="n">
-        <v>1.190022553343262</v>
+        <v>-0.747130805901047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.568368439842914</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6312136552061628</v>
+        <v>-0.32740699377111215</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16455141997916758</v>
+        <v>-0.6157779428090502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6866292065305467</v>
+        <v>-0.33510130700723467</v>
       </c>
       <c r="E13" t="n">
-        <v>0.18415306221665004</v>
+        <v>-0.6940303251597333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.282399143163156</v>
+        <v>2.6</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3761469577337502</v>
+        <v>-0.43660630641875364</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7595980443399787</v>
+        <v>-0.4613115407668741</v>
       </c>
       <c r="D14" t="n">
-        <v>0.40422495856085855</v>
+        <v>-0.46013941289298216</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.822529971953034</v>
+        <v>-0.5399649557948647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.996429846483398</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.18968484572149205</v>
+        <v>-0.5065912798253813</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6475369204487251</v>
+        <v>-0.227149028085582</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.21126958038035482</v>
+        <v>-0.5450113702821671</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.704991813258315</v>
+        <v>-0.29524716357605707</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.710460549803642</v>
+        <v>3.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.40424087794618546</v>
+        <v>-0.5238959048485898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05373439827464624</v>
+        <v>0.060406484680023</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4356403284000539</v>
+        <v>-0.5738059740888362</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08829298094797566</v>
+        <v>0.015221486456736188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.424491253123884</v>
+        <v>3.2</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.20317262384636436</v>
+        <v>-0.48166271036466574</v>
       </c>
       <c r="C17" t="n">
-        <v>0.39879183349088343</v>
+        <v>0.3613288539720461</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.20702785448491165</v>
+        <v>-0.535720237712056</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4385139364429241</v>
+        <v>0.368495740225553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.138521956444126</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="B18" t="n">
-        <v>0.037501654150971925</v>
+        <v>-0.3801690412368266</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2332253395978196</v>
+        <v>0.6489031538787746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.049940309470314456</v>
+        <v>-0.4286011221727062</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23031772453536603</v>
+        <v>0.6920125462935051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.85255265976437</v>
+        <v>3.6</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13811865532752365</v>
+        <v>-0.22554212483914224</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08594514270524276</v>
+        <v>0.8848099598652184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13904727337672432</v>
+        <v>-0.2639170604023107</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06869092614102631</v>
+        <v>0.941252089479988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.566583363084613</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20286988650377508</v>
+        <v>-0.03255312360920407</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09569011741113703</v>
+        <v>1.0268295589208056</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20239776056670497</v>
+        <v>-0.058112350559940656</v>
       </c>
       <c r="E20" t="n">
-        <v>0.10971045125044832</v>
+        <v>1.0997842637277002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.280614066404855</v>
+        <v>4.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22200827975954546</v>
+        <v>0.17731038112072253</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09810323442876284</v>
+        <v>1.0512340002547418</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23831787054628853</v>
+        <v>0.16829981645156686</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.07648253609981213</v>
+        <v>1.1431614644543364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.994644769725099</v>
+        <v>4.2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.012930866034338278</v>
+        <v>0.3796578286568427</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4777782740970968</v>
+        <v>0.9518581312672667</v>
       </c>
       <c r="D22" t="n">
-        <v>0.028438336646994848</v>
+        <v>0.3902724372009342</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.49707787974095063</v>
+        <v>1.0540817680556922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15.708675473045341</v>
+        <v>4.4</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.35288998073269406</v>
+        <v>0.5503099313275721</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.42669925695047073</v>
+        <v>0.7368016775058034</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.36655469626066123</v>
+        <v>0.5812517649119423</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.47969851121192664</v>
+        <v>0.8354180818748296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16.422706176365583</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4332252082179787</v>
+        <v>0.6681099617660425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26697205857127027</v>
+        <v>0.4281437221923605</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.47282010351438986</v>
+        <v>0.7172036279664471</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2694108089299288</v>
+        <v>0.5086570792869899</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17.136736879685827</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0027574337756791824</v>
+        <v>0.7176095038172214</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8416251688604038</v>
+        <v>0.06038998558047372</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.012768532193614837</v>
+        <v>0.7798165217327877</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8991041989217704</v>
+        <v>0.10874367577321598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17.850767583006068</v>
+        <v>5.0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5256632186685799</v>
+        <v>0.6913232904412446</v>
       </c>
       <c r="C26" t="n">
-        <v>0.448789235727064</v>
+        <v>-0.32104940007397625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5594595152043844</v>
+        <v>0.7583478288130976</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5104332177068461</v>
+        <v>-0.32732695601921197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18.56479828632631</v>
+        <v>5.2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.49310887249780605</v>
+        <v>0.5906858098706446</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5448125146511602</v>
+        <v>-0.6792032942573271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5377729539464902</v>
+        <v>0.6511832230297602</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5834525679835837</v>
+        <v>-0.7312645841810194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>19.278828989646556</v>
+        <v>5.4</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.10935710052077474</v>
+        <v>0.4236971673430577</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9532491368902294</v>
+        <v>-0.9762952320982929</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.10665574699353829</v>
+        <v>0.47205419021610534</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0319037224035164</v>
+        <v>-1.043443162134564</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19.992859692966796</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5923989631418054</v>
+        <v>0.20732598139787128</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.25595374190491316</v>
+        <v>-1.166854646011356</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6381242603900187</v>
+        <v>0.24088030982481135</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.29305201179756485</v>
+        <v>-1.2489272398790068</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20.70689039628704</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.41559575562784334</v>
+        <v>-0.0342366160196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6880807121871643</v>
+        <v>-1.2259572008508095</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4497884903896788</v>
+        <v>-0.018938913278199618</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7373984777213808</v>
+        <v>-1.325986059546255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21.420921099607284</v>
+        <v>6.0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17926497666569205</v>
+        <v>-0.2739407923179977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7944251896240818</v>
+        <v>-1.1488018112173386</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1904734230059476</v>
+        <v>-0.2798305787070897</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8627686324630568</v>
+        <v>-1.2585571776437061</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.134951802927525</v>
+        <v>6.2</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5134775929088718</v>
+        <v>-0.48533049393865296</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07083047962070739</v>
+        <v>-0.9457112404165858</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5535975877566348</v>
+        <v>-0.5129887187558709</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07152828460618127</v>
+        <v>-1.0511758911276003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22.84898250624777</v>
+        <v>6.4</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3023390452787404</v>
+        <v>-0.6454123570454064</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.573882171024023</v>
+        <v>-0.6408299442418564</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3210748909227016</v>
+        <v>-0.6925154905392253</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6162054283709036</v>
+        <v>-0.727444368978946</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.563013209568012</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.13103692556608315</v>
+        <v>-0.7372552574350008</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5262737402650403</v>
+        <v>-0.2700977797650995</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.14450811543050168</v>
+        <v>-0.7986377930123383</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5614731588890062</v>
+        <v>-0.3240307169149197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24.277043912888253</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3491489847950255</v>
+        <v>-0.7519644971470965</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.06661517485334675</v>
+        <v>0.12260038454520213</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3710516508838152</v>
+        <v>-0.8197321395281191</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.05524760906712701</v>
+        <v>0.11594462281613586</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>24.991074616208497</v>
+        <v>7.0</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.25763537027830363</v>
+        <v>-0.689740499987627</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2757083419720821</v>
+        <v>0.4940218833070455</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.26703032733780113</v>
+        <v>-0.7530158184209683</v>
       </c>
       <c r="E36" t="n">
-        <v>0.29222098258272305</v>
+        <v>0.540902299897546</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25.70510531952874</v>
+        <v>7.2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.023322399444897106</v>
+        <v>-0.5577981762001089</v>
       </c>
       <c r="C37" t="n">
-        <v>0.34623303097110664</v>
+        <v>0.8130699504245756</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.022496596936183697</v>
+        <v>-0.6093213083758225</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3538996151569051</v>
+        <v>0.8793150199140891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26.41913602284898</v>
+        <v>7.4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.20161146966648022</v>
+        <v>-0.37086882898276763</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26350672434617484</v>
+        <v>1.037478268415522</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2070277338683929</v>
+        <v>-0.40818811848321024</v>
       </c>
       <c r="E38" t="n">
-        <v>0.27176348076605916</v>
+        <v>1.113946543266244</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.133166726169225</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31640198369652167</v>
+        <v>-0.15094429444226037</v>
       </c>
       <c r="C39" t="n">
-        <v>0.026257979406042162</v>
+        <v>1.1405746758262392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3303093586800277</v>
+        <v>-0.1715573032407773</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04035711642829862</v>
+        <v>1.231283913844542</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27.84719742948947</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.20297412259472672</v>
+        <v>0.07689673894452884</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3512484699107602</v>
+        <v>1.1171718533735673</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21995726915303998</v>
+        <v>0.0754992633082108</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.35847653156033027</v>
+        <v>1.216880966895985</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>28.56122813280971</v>
+        <v>8.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.14134284551205462</v>
+        <v>0.2881051822762673</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5409350379160073</v>
+        <v>0.9768685564843272</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.13953030133934147</v>
+        <v>0.30652105008574093</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5770732041115777</v>
+        <v>1.0730037697137744</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29.275258836129954</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4332127633987452</v>
+        <v>0.4612485922874078</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.18054722383931546</v>
+        <v>0.7409639682791234</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4591809480189442</v>
+        <v>0.49741818235584856</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.21317693323251974</v>
+        <v>0.8202849830243204</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29.989289539450198</v>
+        <v>8.4</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.3203624398978251</v>
+        <v>0.5801704211027147</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4927095201964741</v>
+        <v>0.4404593487168566</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3490864283261295</v>
+        <v>0.6295489880119388</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5175555233585242</v>
+        <v>0.49147818275504285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>30.703320242770438</v>
+        <v>8.6</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16452323025043858</v>
+        <v>0.6355938547223621</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7319661941271701</v>
+        <v>0.11243653729585228</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16543317035139782</v>
+        <v>0.6915249945372998</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7896136795782605</v>
+        <v>0.1253921082496564</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>31.417350946090682</v>
+        <v>8.8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5239742321242223</v>
+        <v>0.6258986877842084</v>
       </c>
       <c r="C45" t="n">
-        <v>0.16306070816646015</v>
+        <v>-0.205008461839926</v>
       </c>
       <c r="D45" t="n">
-        <v>0.561012930270282</v>
+        <v>0.679816277491632</v>
       </c>
       <c r="E45" t="n">
-        <v>0.19297745503992902</v>
+        <v>-0.2376315682656065</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>32.131381649410926</v>
+        <v>9.0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.34235525786376836</v>
+        <v>0.5560188868092373</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6292795044790783</v>
+        <v>-0.48530305414519687</v>
       </c>
       <c r="D46" t="n">
-        <v>0.37206709217543615</v>
+        <v>0.6006866301302217</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6671826525449236</v>
+        <v>-0.5400491958350268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>32.84541235273117</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.20691463538339325</v>
+        <v>0.4363089127818724</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7500397413566995</v>
+        <v>-0.6979511692768416</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21542228099629004</v>
+        <v>0.4694497930110896</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8123827375239887</v>
+        <v>-0.7580603091319853</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.55944305605141</v>
+        <v>9.4</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5305635317869375</v>
+        <v>0.2829926371538173</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.07188305116268195</v>
+        <v>-0.8190016298724697</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5700173073455088</v>
+        <v>0.30337212116445766</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0839687334993949</v>
+        <v>-0.8871085142304611</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>34.273473759371655</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.303620631487076</v>
+        <v>0.11517233853818183</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6356612103216728</v>
+        <v>-0.8435162199017243</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3268277156742041</v>
+        <v>0.12116716599231463</v>
       </c>
       <c r="E49" t="n">
-        <v>0.676499942553235</v>
+        <v>-0.9181212248020965</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34.987504462691895</v>
+        <v>9.8</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19910916778834176</v>
+        <v>-0.0485201802511851</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6350746426835504</v>
+        <v>-0.7798824452773442</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2118969810400749</v>
+        <v>-0.057308089768708374</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6840827221888283</v>
+        <v>-0.8511727217784916</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>35.701535166012135</v>
+        <v>10.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.45624841601664484</v>
+        <v>-0.19199144633335807</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03736235511545214</v>
+        <v>-0.6446181095267187</v>
       </c>
       <c r="D51" t="n">
-        <v>0.48796098348555256</v>
+        <v>-0.21378071170869</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03501721553439898</v>
+        <v>-0.7017409080040177</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>36.41556586933238</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>0.27108699203274733</v>
+        <v>-0.3030898015400391</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.49110291515926174</v>
+        <v>-0.46031247404042286</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2871024584957052</v>
+        <v>-0.334206054207114</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5220140096904504</v>
+        <v>-0.495453287932639</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>37.12959657265262</v>
+        <v>10.4</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.11566651681844703</v>
+        <v>-0.3745893831204865</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5027456323240845</v>
+        <v>-0.253101087756103</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.12412278993205204</v>
+        <v>-0.41013987001443436</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5320965840542923</v>
+        <v>-0.26181073936890903</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>37.843627275972864</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.35276149034144855</v>
+        <v>-0.4045585464534446</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1270253510928381</v>
+        <v>-0.04923892723065184</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.37280026245072223</v>
+        <v>-0.4390320920960032</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1293319529410211</v>
+        <v>-0.029441275162805945</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38.55765797929311</v>
+        <v>10.8</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.29212105507501296</v>
+        <v>-0.39592345453132194</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2755691260891799</v>
+        <v>0.13096156252989927</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.30669953117652066</v>
+        <v>-0.4239461367138718</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28746012682804467</v>
+        <v>0.17087103791841593</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39.27168868261335</v>
+        <v>11.0</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.014781130666510042</v>
+        <v>-0.35465398585721225</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4525726211285853</v>
+        <v>0.27389140137472645</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.017585688234491838</v>
+        <v>-0.3746743557684662</v>
       </c>
       <c r="E56" t="n">
-        <v>0.47200378722463837</v>
+        <v>0.3123856368818765</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>39.98571938593359</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>0.27779803819909477</v>
+        <v>-0.2899528739909224</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31232703570236864</v>
+        <v>0.36359201444207545</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2893266764516611</v>
+        <v>-0.30250023586586133</v>
       </c>
       <c r="E57" t="n">
-        <v>0.33213827548963865</v>
+        <v>0.40090726606461297</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.21293102923860455</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3979840089267357</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.2177588070503508</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.4376635958347933</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.13382173980218212</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.3865379032916325</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.1309149461059128</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4226419307164724</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.060487220570742906</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.342537608943985</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.05147973320328405</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.36626033297219257</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.00195680892920375</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.27999604345254936</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.014096368978860838</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2874925631123753</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.05121295363403955</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.21293230120256934</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.06334751480008734</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.20602062934308704</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.08766802822071636</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.15381346501866694</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.09736444938321555</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1372486477301572</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1138586477558963</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.11131354093955036</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.11974704107651118</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.09077535713353146</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.13353400530270607</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.08873382334955557</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.13540766584966396</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.07007917241819349</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1505442929200519</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.08388662573799155</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.14930837575572473</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.07210828533134195</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.16783244778360576</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.09008241476178874</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.16515847614953508</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.08763770040977449</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.18664847140905716</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.09728810580551231</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.18442825788885378</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.10415610120992908</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2060394963138948</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.09391742018601379</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.2060586472180485</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.10929514128081563</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.22281898499768432</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.06974081390644013</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.22666699264686654</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.09233654991408798</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.23212346731858002</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.018560755852685237</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.24099156303861838</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.04553785732977974</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>14.200000000000001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.22837136933148744</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.06026866118460481</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.24272974349783258</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.033899879373318405</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.20669265565431652</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.1594821017535364</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2250164512182922</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.14755020010548162</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.16360573160284955</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.27291149246081625</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.18286564566679983</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.27421936308993916</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.09750299198419478</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.38648422165244795</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.11569654213495685</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.39561692496403583</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.010366698054107282</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.4798483857625875</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.025769882239026033</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.4994968065556198</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>15.200000000000001</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.09186965181395848</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.5348897515190709</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.08179667706614256</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.5687225304422302</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.2001525041085602</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.538538172429109</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.1981397917916016</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.5845248984782084</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.3033093742500558</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.48277108502937405</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.3112344389750749</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.5350786857200397</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.3891812583788582</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.36608960259089396</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.40765455325638456</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.4181670773351856</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.44611104325839773</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.19517508923315074</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.47441581801168564</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.2402362108089899</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.46460883545447745</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0151941356616586</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.5006268089515323</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.015812293098867954</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.4389955007631735</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.24127810556951818</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.47860231409621407</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.23986469961198956</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.36833470305625987</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4631321732096659</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.40530792081817</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4876288478522056</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2555980157870368</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6569442910703664</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.28646298729407726</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.6924283154053126</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.10943796187677408</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7929329238519119</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.13211898057481128</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8401755632143604</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.05633387991904018</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8506845636062005</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.04459011791065787</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9127140576078185</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17.400000000000002</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.2249896597719515</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.82103308096731</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.22680557185770683</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8932981624078504</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.37889809949758924</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7039583902560592</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.39544945802009934</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7774384473283066</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5013419458105404</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5087391733584143</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5319159383063214</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5739416323940868</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5784110891979756</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.25404118051492186</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6204382955507631</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.3018779897099918</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.600736441515817</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.03387617828736726</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6498616285179626</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.011993722259000087</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.564888140688181</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.32257874717255025</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.6144551496515223</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.34052717376373387</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.4731519250616286</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.5887888227739086</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5164117346962286</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.6298489603963842</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.33293805710879915</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.8016608885320917</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3669929361572427</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.8523338788869199</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.15800025757901404</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.9324007390444076</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.18074285436602583</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.9955469556485657</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.033576942304022854</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.9668579115415724</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.024786092834572202</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.0424643314059117</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>19.400000000000002</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.22217873595228793</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.9031630606293313</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.22914856802813838</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.983504822517269</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.3887957362455654</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.7490844786622664</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.4114519279053739</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.8239174506491861</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.5169008803194757</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.5216002299805755</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.5531655091029912</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.5813492731520293</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.5941895785957143</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.24559354912167441</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.6401762689397413</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.2817098099846506</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.6139000261732643</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.048877929610845285</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.6640789504279071</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.04459318704021608</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20.400000000000002</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.5754866295154022</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3315811910163854</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.6227406880982571</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3626866173698309</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.4835374043242743</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5797645578815296</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.5228089796857595</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.6254413135579868</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.34782849793174164</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.764625504930862</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.377264885201851</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8176313124004567</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.18327797424265516</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.866140406997679</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.2011098359356103</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9293961305939629</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>21.200000000000003</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.007327234654267973</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8786459291497666</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.011668318471431991</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9491370056265653</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>21.400000000000002</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.16251751310147466</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8064542009250603</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.17228869411345638</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8754930410123578</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3103826806320111</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6614130311880212</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.333057775909562</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7200682584418489</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.4234469256887553</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.46199583662286553</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.4562101389740855</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5032041645378066</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4930978015300685</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.23139248691466316</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.5319035904059113</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.24984949457892283</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>22.200000000000003</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5156027965199899</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.005203940772098856</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5554649151219607</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.013993047470827078</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.49208001901572934</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.22621801310263265</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5276251293562771</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.2575128175575255</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.42730160947021417</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.41429837800259794</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.45582754238635886</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.4515018083503624</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.32987973211406213</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.5499971108396077</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.35065295750813863</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.5908867345685517</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2114612759832016</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.6236836085385519</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.22345540218481902</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.6705023308001978</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.08449632065067968</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.6361915445677694</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.08682003109977886</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.6849450810689599</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.03936503761234055</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.5940618405358246</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.04638261276596782</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.6375916582812955</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.1501579674250558</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.5074783927029791</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.16489044347274912</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.5404659432581109</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.240264457478977</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.38956747595261565</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.2603125502221763</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.4095050568679113</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.3048711818110367</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.2549297529693227</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.32753881350201214</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.26120035842244776</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.342062998732189</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.11761443087137913</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.3646642377100072</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.11088299075823697</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>24.400000000000002</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.3525399669490539</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.010496756732375734</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.3726012202158957</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.02884741883894907</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.33887077438013885</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.12315781975429649</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.3549240176245376</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.14290375553152193</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.3047644606529517</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.21366246599181585</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.3172410080461349</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.22997756042224302</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.2551641120883569</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.2780432643980969</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.26441136825424766</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2946276822464284</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>25.200000000000003</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.1951257893491951</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.31881136013297795</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.20092978922326774</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.3362460568076261</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>25.400000000000002</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.1288901264955423</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.3407699030971579</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.13142213022745586</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3554218491897908</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.05981808478660895</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.347689045648271</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.059904070494163346</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.35747840847285045</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.009364529052273845</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3422798274878253</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.01085128761570096</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.3486491001126489</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.07641610536865344</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3266688816125338</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.07905647405977206</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.3322217670210776</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>26.200000000000003</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.13942601741929114</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.30190731509200763</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1432459026276647</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.3083318935459319</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.19653170038791412</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.26738693389770907</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.2017917471372055</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.2754580054810211</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.24559930997347837</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.22113380196491458</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.2526807649865948</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.2313440128349612</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2840487342076028</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.16086346622824757</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.2934033899134079</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.17334889141202112</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.3089114779235163</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.08515496871324198</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3209374810227434</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.09916512051245975</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>27.200000000000003</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.3170982873993037</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.00567231011527653</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.331940210490121</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.008176220343097625</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>27.400000000000002</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.3058646525791846</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.10803156743265532</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.32308485675153215</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.0996733371663858</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.27342527345243767</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.21714167692069222</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.29140638304818745</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.21753808593077323</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.21897277434719928</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.3265789895156693</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.2362689706213843</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.3326267949937678</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.14354176414603487</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.42477683529068533</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.15908231376203633</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.4367262756079089</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>28.200000000000003</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.050649732047537574</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.49923535772046507</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0629566416577137</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.5200180727419731</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>28.400000000000002</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.05385862714341461</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.5393579972203764</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.04667054172249479</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.5695613661635022</v>
       </c>
     </row>
   </sheetData>
